--- a/data/trans_orig/P44AS2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44AS2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BCA02A6-21A2-4F53-AE60-87E1029EBB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{716296AF-CEEC-433D-B221-E6A2B7180DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{524226EF-DFF3-4A42-92D6-632675FCEC03}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{921CB0E4-A2BB-4237-AE8D-D9325BA60D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="299">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -481,55 +481,55 @@
     <t>45,04%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>60,2%</t>
   </si>
   <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -538,10 +538,10 @@
     <t>19,02%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
   </si>
   <si>
     <t>16,1%</t>
@@ -556,7 +556,7 @@
     <t>20,39%</t>
   </si>
   <si>
-    <t>54,01%</t>
+    <t>53,87%</t>
   </si>
   <si>
     <t>42,64%</t>
@@ -574,10 +574,10 @@
     <t>43,85%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>41,26%</t>
@@ -598,7 +598,7 @@
     <t>8,83%</t>
   </si>
   <si>
-    <t>67,23%</t>
+    <t>67,18%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -607,94 +607,94 @@
     <t>11,28%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>55,37%</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>57,24%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>22,06%</t>
+    <t>23,11%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>13,18%</t>
+    <t>10,58%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
@@ -712,49 +712,52 @@
     <t>60,96%</t>
   </si>
   <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
     <t>41,28%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
   </si>
   <si>
     <t>2,9%</t>
@@ -769,55 +772,52 @@
     <t>26,23%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
   </si>
   <si>
     <t>54,15%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>33,28%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>55,54%</t>
   </si>
   <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>45,85%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -829,52 +829,55 @@
     <t>67,87%</t>
   </si>
   <si>
-    <t>48,46%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>74,63%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>70,1%</t>
   </si>
   <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
   </si>
   <si>
     <t>29,9%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -889,49 +892,49 @@
     <t>37,77%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3A11C1-4FE5-44FE-A929-9D77AC4C42CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1576205-46FB-47E8-A42D-F1CA72D308AB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2502,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F96096C-AA11-4381-A01E-B16B8803B035}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F306D4-900A-4C81-8745-1979D51E84DC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3661,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75794AB0-AAEF-4E2D-9889-9E184741E5E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0B2876-937B-49E5-B888-3538173F07C7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3854,10 +3857,10 @@
         <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -3866,13 +3869,13 @@
         <v>35332</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3890,13 @@
         <v>9191</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -3917,13 +3920,13 @@
         <v>24837</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,7 +4051,7 @@
         <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4063,7 +4066,7 @@
         <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4078,7 +4081,7 @@
         <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4096,13 @@
         <v>27712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4108,13 +4111,13 @@
         <v>19324</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4123,10 +4126,10 @@
         <v>47037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>250</v>
@@ -4201,7 +4204,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4216,7 +4219,7 @@
         <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4231,7 +4234,7 @@
         <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,7 +4359,7 @@
         <v>263</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -4365,13 +4368,13 @@
         <v>8240</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -4380,13 +4383,13 @@
         <v>23414</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4404,13 @@
         <v>7185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4416,13 +4419,13 @@
         <v>2801</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4431,13 +4434,13 @@
         <v>9986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4577,7 +4580,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4592,7 +4595,7 @@
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4610,13 @@
         <v>57241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -4622,13 +4625,13 @@
         <v>48540</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>151</v>
@@ -4640,10 +4643,10 @@
         <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4661,13 @@
         <v>94297</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -4673,13 +4676,13 @@
         <v>34809</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>108</v>
@@ -4691,10 +4694,10 @@
         <v>155</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +4718,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4730,7 +4733,7 @@
         <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4745,7 +4748,7 @@
         <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44AS2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44AS2-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{716296AF-CEEC-433D-B221-E6A2B7180DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEE73FA8-5234-4F12-8ED1-A745004194FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{921CB0E4-A2BB-4237-AE8D-D9325BA60D7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B617AC2-DB08-498F-90E7-2D8300B9A758}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="297">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>45,6%</t>
+    <t>44,31%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
   </si>
   <si>
     <t>Endoscopia (Colonoscopia/Sigmoidoscopia/Rectoscopia)</t>
@@ -106,28 +106,28 @@
     <t>51,43%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>49,99%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>50,55%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>Sangre oculta en heces</t>
@@ -136,28 +136,28 @@
     <t>38,63%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>31,69%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
   </si>
   <si>
     <t>Análisis de sangre</t>
@@ -187,67 +187,67 @@
     <t>67,03%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>78,86%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>64,24%</t>
+    <t>60,57%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>49,04%</t>
+    <t>49,54%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -271,7 +271,7 @@
     <t>15,55%</t>
   </si>
   <si>
-    <t>64,76%</t>
+    <t>81,94%</t>
   </si>
   <si>
     <t>33,53%</t>
@@ -283,10 +283,10 @@
     <t>50,91%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
   </si>
   <si>
     <t>66,47%</t>
@@ -295,7 +295,7 @@
     <t>33,55%</t>
   </si>
   <si>
-    <t>83,14%</t>
+    <t>83,1%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -304,79 +304,79 @@
     <t>3,68%</t>
   </si>
   <si>
-    <t>18,44%</t>
+    <t>16,15%</t>
   </si>
   <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>63,61%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>42,77%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>53,06%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -391,403 +391,397 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2015 (Tasa respuesta: 0,72%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2016 (Tasa respuesta: 0,72%)</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>45,25%</t>
+    <t>45,22%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
   </si>
   <si>
     <t>12,03%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
   </si>
   <si>
     <t>55,54%</t>
@@ -1346,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1576205-46FB-47E8-A42D-F1CA72D308AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE02DC2-62F2-4B91-9AD0-B70DC5B0982F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2505,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F306D4-900A-4C81-8745-1979D51E84DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516DBCA0-A1B1-45D0-95F6-9C851C4AAE16}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2662,10 +2656,10 @@
         <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,13 +2674,13 @@
         <v>6776</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -2695,13 +2689,13 @@
         <v>6586</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -2710,13 +2704,13 @@
         <v>13362</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2725,13 @@
         <v>1802</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -2746,13 +2740,13 @@
         <v>2152</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -2761,13 +2755,13 @@
         <v>3954</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2782,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2797,13 +2791,13 @@
         <v>1205</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2812,13 +2806,13 @@
         <v>1205</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2895,13 @@
         <v>3474</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -2916,13 +2910,13 @@
         <v>3474</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2931,13 @@
         <v>5824</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2952,13 +2946,13 @@
         <v>4240</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2967,13 +2961,13 @@
         <v>10064</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +2982,13 @@
         <v>3180</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3009,7 +3003,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3018,13 +3012,13 @@
         <v>3180</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,7 +3054,7 @@
         <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3143,13 +3137,13 @@
         <v>1166</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3158,7 +3152,7 @@
         <v>1115</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
@@ -3173,13 +3167,13 @@
         <v>2281</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3188,13 @@
         <v>3087</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3209,7 +3203,7 @@
         <v>1819</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
@@ -3224,13 +3218,13 @@
         <v>4906</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3239,13 @@
         <v>2986</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3260,7 +3254,7 @@
         <v>1014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
@@ -3275,13 +3269,13 @@
         <v>4001</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,7 +3296,7 @@
         <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3332,7 +3326,7 @@
         <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3394,13 @@
         <v>3008</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3415,13 +3409,13 @@
         <v>5823</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -3430,13 +3424,13 @@
         <v>8830</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3445,13 @@
         <v>15687</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3466,13 +3460,13 @@
         <v>12645</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3481,13 +3475,13 @@
         <v>28333</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3496,13 @@
         <v>7968</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3517,13 +3511,13 @@
         <v>3166</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -3532,13 +3526,13 @@
         <v>11134</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3562,13 @@
         <v>1205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3583,13 +3577,13 @@
         <v>1205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,7 +3658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0B2876-937B-49E5-B888-3538173F07C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234E8A8F-7221-46EC-8773-85025F84C125}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3681,7 +3675,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3794,7 +3788,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3809,7 +3803,7 @@
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3824,7 +3818,7 @@
         <v>41</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3833,13 @@
         <v>14355</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -3854,13 +3848,13 @@
         <v>20977</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -3869,13 +3863,13 @@
         <v>35332</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3884,13 @@
         <v>9191</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -3905,13 +3899,13 @@
         <v>15645</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -3920,13 +3914,13 @@
         <v>24837</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,7 +3941,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3962,7 +3956,7 @@
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3977,7 +3971,7 @@
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,7 +4045,7 @@
         <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4066,7 +4060,7 @@
         <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4081,7 +4075,7 @@
         <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4090,13 @@
         <v>27712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4111,13 +4105,13 @@
         <v>19324</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4126,13 +4120,13 @@
         <v>47037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4141,13 @@
         <v>77921</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -4162,13 +4156,13 @@
         <v>16362</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -4177,13 +4171,13 @@
         <v>94282</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4198,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4219,7 +4213,7 @@
         <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4234,7 +4228,7 @@
         <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,7 +4317,7 @@
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4338,7 +4332,7 @@
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4347,13 @@
         <v>15174</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -4368,13 +4362,13 @@
         <v>8240</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -4383,13 +4377,13 @@
         <v>23414</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4398,13 @@
         <v>7185</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4419,13 +4413,13 @@
         <v>2801</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4434,13 +4428,13 @@
         <v>9986</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4470,7 @@
         <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4491,7 +4485,7 @@
         <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,7 +4559,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4580,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4595,7 +4589,7 @@
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4604,13 @@
         <v>57241</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -4625,13 +4619,13 @@
         <v>48540</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>151</v>
@@ -4640,13 +4634,13 @@
         <v>105782</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4655,13 @@
         <v>94297</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -4676,13 +4670,13 @@
         <v>34809</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>108</v>
@@ -4691,13 +4685,13 @@
         <v>129105</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,7 +4712,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4733,7 +4727,7 @@
         <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4748,7 +4742,7 @@
         <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
